--- a/Forms/ReportTemplates/Feedback Form.xlsx
+++ b/Forms/ReportTemplates/Feedback Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58CBC7E-1AD1-440F-80E1-055E5750C438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF127DB-7632-40F5-8E07-D5A04DF0678F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC5F2F1-36A0-4965-BAA8-67364BD15367}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,206 +610,203 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
